--- a/data/input/employee_absence_data_17.xlsx
+++ b/data/input/employee_absence_data_17.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32649</v>
+        <v>50017</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Pires</t>
+          <t>João Miguel Lima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,31 +478,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>3707.09</v>
+        <v>6586.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90142</v>
+        <v>65402</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antônio Pimenta</t>
+          <t>Carlos Eduardo da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -511,51 +511,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4484.48</v>
+        <v>6641.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>59224</v>
+        <v>85565</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Eduarda Azevedo</t>
+          <t>Raul Rodrigues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>8960.34</v>
+        <v>5729.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>93019</v>
+        <v>49024</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sophie Campos</t>
+          <t>Bruna Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -565,31 +565,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>8646.809999999999</v>
+        <v>5536.97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39231</v>
+        <v>65966</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana da Mata</t>
+          <t>Lívia da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,19 +601,19 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>6337.36</v>
+        <v>6851.94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>57807</v>
+        <v>42662</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaique Costa</t>
+          <t>Arthur Pereira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,60 +623,60 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>2804.36</v>
+        <v>7893.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88185</v>
+        <v>83087</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Miguel Guerra</t>
+          <t>Maria Helena Pacheco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>10836.28</v>
+        <v>8496.99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77878</v>
+        <v>63181</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eduarda Borges</t>
+          <t>Dom Andrade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>3001.54</v>
+        <v>6036.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41788</v>
+        <v>20255</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Cecília Pastor</t>
+          <t>Dra. Mariah Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>11382.14</v>
+        <v>9754.059999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>88020</v>
+        <v>4659</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lara Albuquerque</t>
+          <t>Beatriz Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45079</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>8061.61</v>
+        <v>7407.27</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_17.xlsx
+++ b/data/input/employee_absence_data_17.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50017</v>
+        <v>27897</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Miguel Lima</t>
+          <t>Emanuelly Martins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,51 +482,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>6586.44</v>
+        <v>8757.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65402</v>
+        <v>17764</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo da Paz</t>
+          <t>Felipe Camargo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>6641.84</v>
+        <v>8112.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>85565</v>
+        <v>5355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raul Rodrigues</t>
+          <t>Sra. Clarice Brito</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -536,60 +536,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>5729.25</v>
+        <v>4642.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49024</v>
+        <v>91164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruna Freitas</t>
+          <t>Natália Moraes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45099</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>5536.97</v>
+        <v>7964.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65966</v>
+        <v>934</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lívia da Mota</t>
+          <t>Srta. Catarina Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,158 +598,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45085</v>
+        <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>6851.94</v>
+        <v>8392.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>42662</v>
+        <v>24337</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arthur Pereira</t>
+          <t>Diego Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45091</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>7893.09</v>
+        <v>8563.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83087</v>
+        <v>49612</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Helena Pacheco</t>
+          <t>Sr. Enzo Gabriel Aragão</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45079</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>8496.99</v>
+        <v>8752.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63181</v>
+        <v>49810</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dom Andrade</t>
+          <t>Fernando Sá</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>6036.26</v>
+        <v>4103.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20255</v>
+        <v>68527</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dra. Mariah Alves</t>
+          <t>Nathan Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>9754.059999999999</v>
+        <v>4502.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4659</v>
+        <v>83084</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beatriz Farias</t>
+          <t>Leonardo da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>7407.27</v>
+        <v>8038.27</v>
       </c>
     </row>
   </sheetData>
